--- a/v5/v5_few_sample/v5_regression_few_sample.xlsx
+++ b/v5/v5_few_sample/v5_regression_few_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\results\analysis_data\standard_few_sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\v5_few_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77706B0C-7524-4E5B-A355-C741893C7A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF137A83-68C9-400B-9CE1-C75CEB54CDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="971">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -412,6 +412,168 @@
     <t>-4.93%</t>
   </si>
   <si>
+    <t>Brazilian_houses:regression</t>
+  </si>
+  <si>
+    <t>1039.7982,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>895.8303,(-13.85%:1)</t>
+  </si>
+  <si>
+    <t>1280.7272,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>882.6639,(-31.08%:1)</t>
+  </si>
+  <si>
+    <t>770.5394,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>696.1169,(-9.66%:1)</t>
+  </si>
+  <si>
+    <t>1083.0138,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>745.6371,(-31.15%:1)</t>
+  </si>
+  <si>
+    <t>1108.3467,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1432.1433,(29.21%:2)</t>
+  </si>
+  <si>
+    <t>1196.6777,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1701.4781,(42.18%:2)</t>
+  </si>
+  <si>
+    <t>1426.2203,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1067.4364,(-25.16%:1)</t>
+  </si>
+  <si>
+    <t>1588.9217,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1561.1433,(-1.75%:1)</t>
+  </si>
+  <si>
+    <t>1235.8664,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2684.7697,(117.24%:2)</t>
+  </si>
+  <si>
+    <t>893.7036,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1083.7232,(21.26%:2)</t>
+  </si>
+  <si>
+    <t>1152.3140,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1997.8166,(73.37%:2)</t>
+  </si>
+  <si>
+    <t>734.0937,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>819.8342,(11.68%:2)</t>
+  </si>
+  <si>
+    <t>1056.9447,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1383.0853,(30.86%:2)</t>
+  </si>
+  <si>
+    <t>1095.5172,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>1463.1779,(33.56%:2)</t>
+  </si>
+  <si>
+    <t>1534.6156,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1477.3610,(-3.73%:1)</t>
+  </si>
+  <si>
+    <t>1630.4310,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2110.0339,(29.42%:2)</t>
+  </si>
+  <si>
+    <t>1699.6276,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1239.9727,(-27.04%:1)</t>
+  </si>
+  <si>
+    <t>1644.4391,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2208.4361,(34.30%:2)</t>
+  </si>
+  <si>
+    <t>1793.5119,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1622.5529,(-9.53%:1)</t>
+  </si>
+  <si>
+    <t>1957.2277,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2148.2529,(9.76%:2)</t>
+  </si>
+  <si>
+    <t>1766.6207,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1593.4921,(-9.80%:1)</t>
+  </si>
+  <si>
+    <t>2115.6236,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>2502.6532,(18.29%:2)</t>
+  </si>
+  <si>
+    <t>2498.9807,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>1837.9265,(-26.45%:1)</t>
+  </si>
+  <si>
+    <t>3550.3878,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2859.1920,(-19.47%:1)</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>21.10%</t>
+  </si>
+  <si>
+    <t>19.75%</t>
+  </si>
+  <si>
+    <t>-0.19%</t>
+  </si>
+  <si>
+    <t>-0.25%</t>
+  </si>
+  <si>
     <t>california_housing:regression</t>
   </si>
   <si>
@@ -574,6 +736,162 @@
     <t>-3.25%</t>
   </si>
   <si>
+    <t>colleges:regression</t>
+  </si>
+  <si>
+    <t>0.1505,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1558,(3.54%:2)</t>
+  </si>
+  <si>
+    <t>0.1538,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1513,(-1.65%:1)</t>
+  </si>
+  <si>
+    <t>0.1480,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1542,(4.20%:2)</t>
+  </si>
+  <si>
+    <t>0.1545,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1605,(3.86%:2)</t>
+  </si>
+  <si>
+    <t>0.1544,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1562,(1.16%:2)</t>
+  </si>
+  <si>
+    <t>0.1578,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1581,(0.19%:2)</t>
+  </si>
+  <si>
+    <t>0.1571,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1594,(1.49%:2)</t>
+  </si>
+  <si>
+    <t>0.1623,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1662,(2.36%:2)</t>
+  </si>
+  <si>
+    <t>0.1509,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1491,(-1.17%:1)</t>
+  </si>
+  <si>
+    <t>0.1529,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1502,(-1.71%:1)</t>
+  </si>
+  <si>
+    <t>0.1499,(-0.69%:1)</t>
+  </si>
+  <si>
+    <t>0.1548,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1553,(0.31%:2)</t>
+  </si>
+  <si>
+    <t>0.1517,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1520,(0.18%:2)</t>
+  </si>
+  <si>
+    <t>0.1531,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1529,(-0.18%:1)</t>
+  </si>
+  <si>
+    <t>0.1541,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1546,(0.32%:2)</t>
+  </si>
+  <si>
+    <t>0.1589,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1598,(0.63%:2)</t>
+  </si>
+  <si>
+    <t>0.1487,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1483,(-0.21%:1)</t>
+  </si>
+  <si>
+    <t>0.1523,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1535,(0.76%:2)</t>
+  </si>
+  <si>
+    <t>0.1512,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1525,(0.88%:2)</t>
+  </si>
+  <si>
+    <t>0.1561,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>0.1577,(1.08%:2)</t>
+  </si>
+  <si>
+    <t>0.1829,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1726,(-5.63%:1)</t>
+  </si>
+  <si>
+    <t>0.1842,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1785,(-3.07%:1)</t>
+  </si>
+  <si>
+    <t>0.1898,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1769,(-6.80%:1)</t>
+  </si>
+  <si>
+    <t>0.1951,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>0.1867,(-4.31%:1)</t>
+  </si>
+  <si>
+    <t>-0.36%</t>
+  </si>
+  <si>
+    <t>-0.95%</t>
+  </si>
+  <si>
+    <t>-0.10%</t>
+  </si>
+  <si>
+    <t>0.65%</t>
+  </si>
+  <si>
     <t>combined_cycle_power_plant:regression</t>
   </si>
   <si>
@@ -1039,9 +1357,6 @@
     <t>892.6467,(-42.62%:1)</t>
   </si>
   <si>
-    <t>1.50</t>
-  </si>
-  <si>
     <t>-8.42%</t>
   </si>
   <si>
@@ -1171,6 +1486,801 @@
     <t>-3.80%</t>
   </si>
   <si>
+    <t>House_16H:regression</t>
+  </si>
+  <si>
+    <t>31039.7870,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31439.8839,(1.29%:2)</t>
+  </si>
+  <si>
+    <t>31262.4422,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31680.1551,(1.34%:2)</t>
+  </si>
+  <si>
+    <t>32427.2157,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32507.2350,(0.25%:2)</t>
+  </si>
+  <si>
+    <t>33137.9345,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>33328.4929,(0.58%:2)</t>
+  </si>
+  <si>
+    <t>31126.6423,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31418.6438,(0.94%:2)</t>
+  </si>
+  <si>
+    <t>31263.6485,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31329.4448,(0.21%:2)</t>
+  </si>
+  <si>
+    <t>32025.9984,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>31701.0706,(-1.01%:1)</t>
+  </si>
+  <si>
+    <t>34782.2170,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>35089.3373,(0.88%:2)</t>
+  </si>
+  <si>
+    <t>30012.1929,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>30236.0053,(0.75%:2)</t>
+  </si>
+  <si>
+    <t>30510.3621,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>30480.4446,(-0.10%:1)</t>
+  </si>
+  <si>
+    <t>30721.9306,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>31365.9259,(2.10%:2)</t>
+  </si>
+  <si>
+    <t>32474.1470,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>33561.4252,(3.35%:2)</t>
+  </si>
+  <si>
+    <t>31529.0872,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>31340.4078,(-0.60%:1)</t>
+  </si>
+  <si>
+    <t>31806.3434,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32207.5585,(1.26%:2)</t>
+  </si>
+  <si>
+    <t>31831.3309,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32193.7069,(1.14%:2)</t>
+  </si>
+  <si>
+    <t>33818.9260,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>34192.0310,(1.10%:2)</t>
+  </si>
+  <si>
+    <t>32094.2225,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32105.9789,(0.04%:2)</t>
+  </si>
+  <si>
+    <t>31233.6308,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>30784.6591,(-1.44%:1)</t>
+  </si>
+  <si>
+    <t>31867.2710,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>32025.2114,(0.50%:2)</t>
+  </si>
+  <si>
+    <t>33682.0891,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>33650.2097,(-0.09%:1)</t>
+  </si>
+  <si>
+    <t>42559.8496,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>40631.4677,(-4.53%:1)</t>
+  </si>
+  <si>
+    <t>42778.3322,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>38996.6722,(-8.84%:1)</t>
+  </si>
+  <si>
+    <t>42580.2900,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>39534.9139,(-7.15%:1)</t>
+  </si>
+  <si>
+    <t>42419.9216,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>38565.9858,(-9.09%:1)</t>
+  </si>
+  <si>
+    <t>-0.35%</t>
+  </si>
+  <si>
+    <t>-1.26%</t>
+  </si>
+  <si>
+    <t>-0.70%</t>
+  </si>
+  <si>
+    <t>-0.55%</t>
+  </si>
+  <si>
+    <t>house_sales:regression</t>
+  </si>
+  <si>
+    <t>122265.4221,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>120989.2703,(-1.04%:1)</t>
+  </si>
+  <si>
+    <t>125777.0950,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>127125.4795,(1.07%:2)</t>
+  </si>
+  <si>
+    <t>134291.1567,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>140483.6565,(4.61%:2)</t>
+  </si>
+  <si>
+    <t>146028.1383,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>148392.1559,(1.62%:2)</t>
+  </si>
+  <si>
+    <t>122534.5506,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>128917.6401,(5.21%:2)</t>
+  </si>
+  <si>
+    <t>124325.1841,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>136355.1854,(9.68%:2)</t>
+  </si>
+  <si>
+    <t>125036.0173,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>139671.8660,(11.71%:2)</t>
+  </si>
+  <si>
+    <t>132613.1800,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>146687.7586,(10.61%:2)</t>
+  </si>
+  <si>
+    <t>124223.6029,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>118717.3249,(-4.43%:1)</t>
+  </si>
+  <si>
+    <t>122027.0899,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>123142.6919,(0.91%:2)</t>
+  </si>
+  <si>
+    <t>137614.8275,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>140511.8574,(2.11%:2)</t>
+  </si>
+  <si>
+    <t>148044.5934,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>145879.4864,(-1.46%:1)</t>
+  </si>
+  <si>
+    <t>125339.7829,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>130293.0881,(3.95%:2)</t>
+  </si>
+  <si>
+    <t>126901.2400,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>133266.0715,(5.02%:2)</t>
+  </si>
+  <si>
+    <t>130761.4549,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>140599.6909,(7.52%:2)</t>
+  </si>
+  <si>
+    <t>136746.8997,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>145802.5895,(6.62%:2)</t>
+  </si>
+  <si>
+    <t>128126.7357,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>135970.7700,(6.12%:2)</t>
+  </si>
+  <si>
+    <t>133499.2259,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>143345.1236,(7.38%:2)</t>
+  </si>
+  <si>
+    <t>135498.0671,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>148135.7799,(9.33%:2)</t>
+  </si>
+  <si>
+    <t>147933.0139,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>161002.4242,(8.83%:2)</t>
+  </si>
+  <si>
+    <t>183995.0293,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>174309.3058,(-5.26%:1)</t>
+  </si>
+  <si>
+    <t>213418.8556,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>186446.6181,(-12.64%:1)</t>
+  </si>
+  <si>
+    <t>183223.2783,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>169503.0677,(-7.49%:1)</t>
+  </si>
+  <si>
+    <t>204294.2070,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>203684.9635,(-0.30%:1)</t>
+  </si>
+  <si>
+    <t>0.76%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>4.63%</t>
+  </si>
+  <si>
+    <t>4.32%</t>
+  </si>
+  <si>
+    <t>OnlineNewsPopularity:regression</t>
+  </si>
+  <si>
+    <t>12853.8276,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12886.0999,(0.25%:2)</t>
+  </si>
+  <si>
+    <t>12880.7724,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12896.7838,(0.12%:2)</t>
+  </si>
+  <si>
+    <t>12873.6703,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12866.1820,(-0.06%:1)</t>
+  </si>
+  <si>
+    <t>12958.9142,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12872.5540,(-0.67%:1)</t>
+  </si>
+  <si>
+    <t>12943.8797,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12961.1196,(0.13%:2)</t>
+  </si>
+  <si>
+    <t>12983.4012,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13007.1956,(0.18%:2)</t>
+  </si>
+  <si>
+    <t>13112.3422,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13291.8163,(1.37%:2)</t>
+  </si>
+  <si>
+    <t>13326.7721,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>13278.1152,(-0.37%:1)</t>
+  </si>
+  <si>
+    <t>12859.5735,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12875.2675,(0.12%:2)</t>
+  </si>
+  <si>
+    <t>12858.2436,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12818.8786,(-0.31%:1)</t>
+  </si>
+  <si>
+    <t>12843.6978,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12824.2383,(-0.15%:1)</t>
+  </si>
+  <si>
+    <t>12861.6290,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12846.9822,(-0.11%:1)</t>
+  </si>
+  <si>
+    <t>12869.5081,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12873.7375,(0.03%:2)</t>
+  </si>
+  <si>
+    <t>12865.9943,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12879.0035,(0.10%:2)</t>
+  </si>
+  <si>
+    <t>12894.5567,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12960.5845,(0.51%:2)</t>
+  </si>
+  <si>
+    <t>12913.4667,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13018.4962,(0.81%:2)</t>
+  </si>
+  <si>
+    <t>12926.5858,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12919.9711,(-0.05%:1)</t>
+  </si>
+  <si>
+    <t>12934.6703,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12926.4918,(-0.06%:1)</t>
+  </si>
+  <si>
+    <t>12959.9582,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13142.6050,(1.41%:2)</t>
+  </si>
+  <si>
+    <t>12995.8712,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13222.7775,(1.75%:2)</t>
+  </si>
+  <si>
+    <t>12907.5190,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12907.2436,(-0.00%:1)</t>
+  </si>
+  <si>
+    <t>12900.8777,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>12948.7420,(0.37%:2)</t>
+  </si>
+  <si>
+    <t>13002.2470,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13189.5753,(1.44%:2)</t>
+  </si>
+  <si>
+    <t>13016.7949,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>13176.8466,(1.23%:2)</t>
+  </si>
+  <si>
+    <t>0.08%</t>
+  </si>
+  <si>
+    <t>0.07%</t>
+  </si>
+  <si>
+    <t>0.75%</t>
+  </si>
+  <si>
+    <t>0.44%</t>
+  </si>
+  <si>
+    <t>physicochemical_properties_of_protein_tertiary_structure:regression</t>
+  </si>
+  <si>
+    <t>3.8212,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6989,(-3.20%:1)</t>
+  </si>
+  <si>
+    <t>3.8160,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.7855,(-0.80%:1)</t>
+  </si>
+  <si>
+    <t>3.9737,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.8986,(-1.89%:1)</t>
+  </si>
+  <si>
+    <t>4.2602,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>4.2827,(0.53%:2)</t>
+  </si>
+  <si>
+    <t>3.6868,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6866,(-0.01%:1)</t>
+  </si>
+  <si>
+    <t>3.6804,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6757,(-0.13%:1)</t>
+  </si>
+  <si>
+    <t>3.8692,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.8650,(-0.11%:1)</t>
+  </si>
+  <si>
+    <t>4.2218,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.2154,(-0.15%:1)</t>
+  </si>
+  <si>
+    <t>3.6373,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6171,(-0.55%:1)</t>
+  </si>
+  <si>
+    <t>3.7435,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>3.7527,(0.25%:2)</t>
+  </si>
+  <si>
+    <t>3.9349,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.9338,(-0.03%:1)</t>
+  </si>
+  <si>
+    <t>4.2385,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.2142,(-0.57%:1)</t>
+  </si>
+  <si>
+    <t>3.4782,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.4712,(-0.20%:1)</t>
+  </si>
+  <si>
+    <t>3.6427,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6403,(-0.06%:1)</t>
+  </si>
+  <si>
+    <t>3.7926,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.7922,(-0.01%:1)</t>
+  </si>
+  <si>
+    <t>4.0937,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.0927,(-0.02%:1)</t>
+  </si>
+  <si>
+    <t>3.5745,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.5420,(-0.91%:1)</t>
+  </si>
+  <si>
+    <t>3.6743,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.6124,(-1.69%:1)</t>
+  </si>
+  <si>
+    <t>3.8582,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.8295,(-0.74%:1)</t>
+  </si>
+  <si>
+    <t>4.1356,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>4.1705,(0.84%:2)</t>
+  </si>
+  <si>
+    <t>4.4640,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.0756,(-8.70%:1)</t>
+  </si>
+  <si>
+    <t>4.6519,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.2556,(-8.52%:1)</t>
+  </si>
+  <si>
+    <t>4.6941,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>4.3791,(-6.71%:1)</t>
+  </si>
+  <si>
+    <t>5.4677,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.0371,(-7.87%:1)</t>
+  </si>
+  <si>
+    <t>-2.26%</t>
+  </si>
+  <si>
+    <t>-1.83%</t>
+  </si>
+  <si>
+    <t>-1.58%</t>
+  </si>
+  <si>
+    <t>-1.21%</t>
+  </si>
+  <si>
+    <t>pol:regression</t>
+  </si>
+  <si>
+    <t>6.2986,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.7431,(-8.82%:1)</t>
+  </si>
+  <si>
+    <t>6.1801,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>5.5278,(-10.56%:1)</t>
+  </si>
+  <si>
+    <t>8.2903,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>6.4803,(-21.83%:1)</t>
+  </si>
+  <si>
+    <t>8.8963,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>7.6517,(-13.99%:1)</t>
+  </si>
+  <si>
+    <t>8.8105,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>8.8251,(0.17%:2)</t>
+  </si>
+  <si>
+    <t>11.8941,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>11.9104,(0.14%:2)</t>
+  </si>
+  <si>
+    <t>14.9989,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>14.9127,(-0.57%:1)</t>
+  </si>
+  <si>
+    <t>18.4119,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>18.0577,(-1.92%:1)</t>
+  </si>
+  <si>
+    <t>2.8089,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.6309,(-6.34%:1)</t>
+  </si>
+  <si>
+    <t>3.0729,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>2.9434,(-4.22%:1)</t>
+  </si>
+  <si>
+    <t>3.2903,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>3.2116,(-2.39%:1)</t>
+  </si>
+  <si>
+    <t>3.7181,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>3.7354,(0.46%:2)</t>
+  </si>
+  <si>
+    <t>9.9422,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>9.8673,(-0.75%:1)</t>
+  </si>
+  <si>
+    <t>11.7745,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>11.7611,(-0.11%:1)</t>
+  </si>
+  <si>
+    <t>14.6565,(0.00%:1)</t>
+  </si>
+  <si>
+    <t>14.6649,(0.06%:2)</t>
+  </si>
+  <si>
+    <t>17.9022,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>17.6182,(-1.59%:1)</t>
+  </si>
+  <si>
+    <t>10.5051,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.1623,(-3.26%:1)</t>
+  </si>
+  <si>
+    <t>11.5513,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.8594,(-5.99%:1)</t>
+  </si>
+  <si>
+    <t>13.8796,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>13.2584,(-4.48%:1)</t>
+  </si>
+  <si>
+    <t>18.1689,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>17.2633,(-4.98%:1)</t>
+  </si>
+  <si>
+    <t>16.7229,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>10.9134,(-34.74%:1)</t>
+  </si>
+  <si>
+    <t>18.7686,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>12.2069,(-34.96%:1)</t>
+  </si>
+  <si>
+    <t>22.6934,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>16.1014,(-29.05%:1)</t>
+  </si>
+  <si>
+    <t>28.7507,(0.00%:2)</t>
+  </si>
+  <si>
+    <t>22.2097,(-22.75%:1)</t>
+  </si>
+  <si>
+    <t>-8.96%</t>
+  </si>
+  <si>
+    <t>-9.28%</t>
+  </si>
+  <si>
+    <t>-9.71%</t>
+  </si>
+  <si>
+    <t>-7.46%</t>
+  </si>
+  <si>
     <t>qsar_aquatic_toxicity:regression</t>
   </si>
   <si>
@@ -1813,16 +2923,16 @@
     <t>total_avg_percentage</t>
   </si>
   <si>
-    <t>-7.29%</t>
-  </si>
-  <si>
-    <t>-6.72%</t>
-  </si>
-  <si>
-    <t>-7.31%</t>
-  </si>
-  <si>
-    <t>-5.15%</t>
+    <t>-3.90%</t>
+  </si>
+  <si>
+    <t>-3.64%</t>
+  </si>
+  <si>
+    <t>-4.85%</t>
+  </si>
+  <si>
+    <t>-3.37%</t>
   </si>
 </sst>
 </file>
@@ -1908,7 +3018,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2208,24 +3318,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2782,25 +3892,25 @@
       <c r="C18" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E18" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G18" t="s">
         <v>135</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>136</v>
       </c>
       <c r="I18" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2814,13 +3924,13 @@
       <c r="C19" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>140</v>
       </c>
       <c r="E19" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>142</v>
       </c>
       <c r="G19" t="s">
@@ -2846,13 +3956,13 @@
       <c r="C20" t="s">
         <v>147</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>148</v>
       </c>
       <c r="E20" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>150</v>
       </c>
       <c r="G20" t="s">
@@ -2864,7 +3974,7 @@
       <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2878,25 +3988,25 @@
       <c r="C21" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>156</v>
       </c>
       <c r="E21" t="s">
         <v>157</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>158</v>
       </c>
       <c r="G21" t="s">
         <v>159</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>160</v>
       </c>
       <c r="I21" t="s">
         <v>161</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2922,13 +4032,13 @@
       <c r="G22" t="s">
         <v>167</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>168</v>
       </c>
       <c r="I22" t="s">
         <v>169</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2948,20 +4058,20 @@
       <c r="E23" t="s">
         <v>173</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>174</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2972,28 +4082,28 @@
         <v>66</v>
       </c>
       <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>179</v>
+      </c>
+      <c r="E24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="G24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="I24" t="s">
         <v>179</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J24" t="s">
         <v>179</v>
-      </c>
-      <c r="H24" t="s">
-        <v>178</v>
-      </c>
-      <c r="I24" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -3056,7 +4166,7 @@
       <c r="I26" t="s">
         <v>191</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>192</v>
       </c>
     </row>
@@ -3108,7 +4218,7 @@
       <c r="E28" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G28" t="s">
@@ -3140,7 +4250,7 @@
       <c r="E29" t="s">
         <v>211</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G29" t="s">
@@ -3208,16 +4318,16 @@
         <v>228</v>
       </c>
       <c r="G31" t="s">
+        <v>225</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" t="s">
         <v>230</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3234,22 +4344,22 @@
         <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="F32" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="H32" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3263,57 +4373,57 @@
         <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
         <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G33" t="s">
         <v>72</v>
       </c>
       <c r="H33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I33" t="s">
         <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
-      </c>
-      <c r="D34" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="D34" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="H34" s="3" t="s">
+        <v>244</v>
+      </c>
       <c r="I34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3324,28 +4434,28 @@
         <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="D35" s="3" t="s">
+        <v>248</v>
+      </c>
       <c r="E35" t="s">
-        <v>248</v>
-      </c>
-      <c r="F35" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="F35" s="3" t="s">
+        <v>250</v>
+      </c>
       <c r="G35" t="s">
-        <v>250</v>
-      </c>
-      <c r="H35" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="H35" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="I35" t="s">
-        <v>252</v>
-      </c>
-      <c r="J35" s="2" t="s">
         <v>253</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3356,19 +4466,19 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G36" t="s">
         <v>255</v>
-      </c>
-      <c r="E36" t="s">
-        <v>256</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" t="s">
-        <v>258</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>259</v>
@@ -3390,7 +4500,7 @@
       <c r="C37" t="s">
         <v>262</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>263</v>
       </c>
       <c r="E37" t="s">
@@ -3402,13 +4512,13 @@
       <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="3" t="s">
         <v>267</v>
       </c>
       <c r="I37" t="s">
         <v>268</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="3" t="s">
         <v>269</v>
       </c>
     </row>
@@ -3428,19 +4538,19 @@
       <c r="E38" t="s">
         <v>272</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="3" t="s">
         <v>273</v>
       </c>
       <c r="G38" t="s">
         <v>274</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="3" t="s">
         <v>275</v>
       </c>
       <c r="I38" t="s">
         <v>276</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="3" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3484,28 +4594,28 @@
         <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="E40" t="s">
-        <v>69</v>
+        <v>232</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>233</v>
       </c>
       <c r="G40" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>68</v>
       </c>
       <c r="J40" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -3556,13 +4666,13 @@
       <c r="E42" t="s">
         <v>293</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="3" t="s">
         <v>294</v>
       </c>
       <c r="G42" t="s">
         <v>295</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="H42" s="3" t="s">
         <v>296</v>
       </c>
       <c r="I42" t="s">
@@ -3620,13 +4730,13 @@
       <c r="E44" t="s">
         <v>309</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
         <v>310</v>
       </c>
       <c r="G44" t="s">
         <v>311</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>312</v>
       </c>
       <c r="I44" t="s">
@@ -3646,19 +4756,19 @@
       <c r="C45" t="s">
         <v>315</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>316</v>
       </c>
       <c r="E45" t="s">
         <v>317</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>318</v>
       </c>
       <c r="G45" t="s">
         <v>319</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>320</v>
       </c>
       <c r="I45" t="s">
@@ -3678,19 +4788,19 @@
       <c r="C46" t="s">
         <v>323</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>324</v>
       </c>
       <c r="E46" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="3" t="s">
         <v>326</v>
       </c>
       <c r="G46" t="s">
         <v>327</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>328</v>
       </c>
       <c r="I46" t="s">
@@ -3740,22 +4850,22 @@
         <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>339</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="I48" t="s">
         <v>69</v>
@@ -3775,48 +4885,48 @@
         <v>72</v>
       </c>
       <c r="D49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E49" t="s">
         <v>72</v>
       </c>
       <c r="F49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G49" t="s">
         <v>72</v>
       </c>
       <c r="H49" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I49" t="s">
         <v>72</v>
       </c>
       <c r="J49" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" t="s">
         <v>11</v>
       </c>
       <c r="C50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="E50" t="s">
         <v>346</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" t="s">
         <v>348</v>
-      </c>
-      <c r="G50" t="s">
-        <v>347</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>349</v>
@@ -3824,7 +4934,7 @@
       <c r="I50" t="s">
         <v>350</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="3" t="s">
         <v>351</v>
       </c>
     </row>
@@ -3836,28 +4946,28 @@
         <v>21</v>
       </c>
       <c r="C51" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E51" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G51" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="I51" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3868,28 +4978,28 @@
         <v>30</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E52" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G52" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3900,28 +5010,28 @@
         <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="G53" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="I53" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3932,28 +5042,28 @@
         <v>48</v>
       </c>
       <c r="C54" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
-        <v>366</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>367</v>
+        <v>378</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="G54" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="I54" t="s">
-        <v>369</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3964,28 +5074,28 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="E55" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="G55" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -4002,10 +5112,10 @@
         <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G56" t="s">
         <v>69</v>
@@ -4014,10 +5124,10 @@
         <v>70</v>
       </c>
       <c r="I56" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="J56" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -4031,57 +5141,57 @@
         <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="E57" t="s">
         <v>72</v>
       </c>
       <c r="F57" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="G57" t="s">
         <v>72</v>
       </c>
       <c r="H57" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="I57" t="s">
         <v>72</v>
       </c>
       <c r="J57" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s">
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="E58" t="s">
-        <v>386</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>387</v>
+        <v>399</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="G58" t="s">
-        <v>388</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>389</v>
+        <v>401</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="I58" t="s">
-        <v>390</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>391</v>
+        <v>403</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -4092,28 +5202,28 @@
         <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E59" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="G59" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I59" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -4124,28 +5234,28 @@
         <v>30</v>
       </c>
       <c r="C60" t="s">
-        <v>400</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>401</v>
+        <v>413</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="E60" t="s">
-        <v>402</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="G60" t="s">
-        <v>404</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>407</v>
+        <v>419</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -4156,28 +5266,28 @@
         <v>39</v>
       </c>
       <c r="C61" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="E61" t="s">
-        <v>410</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>411</v>
+        <v>423</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="G61" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="I61" t="s">
-        <v>414</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>415</v>
+        <v>427</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -4188,28 +5298,28 @@
         <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="E62" t="s">
-        <v>418</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>419</v>
+        <v>431</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="G62" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I62" t="s">
-        <v>422</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,28 +5330,28 @@
         <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="E63" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G63" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I63" t="s">
-        <v>430</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -4255,25 +5365,25 @@
         <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E64" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="H64" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="I64" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -4287,57 +5397,57 @@
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="E65" t="s">
         <v>72</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G65" t="s">
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="I65" t="s">
         <v>72</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>437</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="E66" t="s">
-        <v>439</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>453</v>
       </c>
       <c r="G66" t="s">
-        <v>441</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>442</v>
+        <v>452</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>454</v>
       </c>
       <c r="I66" t="s">
-        <v>443</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>444</v>
+        <v>455</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -4348,28 +5458,28 @@
         <v>21</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="E67" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G67" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I67" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -4380,28 +5490,28 @@
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>453</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>461</v>
       </c>
       <c r="E68" t="s">
-        <v>455</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>456</v>
+        <v>450</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="G68" t="s">
-        <v>457</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>458</v>
+        <v>452</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="I68" t="s">
-        <v>459</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>460</v>
+        <v>464</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4412,28 +5522,28 @@
         <v>39</v>
       </c>
       <c r="C69" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="E69" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G69" t="s">
         <v>464</v>
       </c>
-      <c r="G69" t="s">
-        <v>465</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>466</v>
+      <c r="H69" s="2" t="s">
+        <v>468</v>
       </c>
       <c r="I69" t="s">
-        <v>467</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -4444,7 +5554,7 @@
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>470</v>
@@ -4452,20 +5562,20 @@
       <c r="E70" t="s">
         <v>471</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>472</v>
       </c>
       <c r="G70" t="s">
+        <v>464</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="I70" t="s">
         <v>474</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -4476,28 +5586,28 @@
         <v>57</v>
       </c>
       <c r="C71" t="s">
+        <v>476</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="E71" t="s">
         <v>478</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" t="s">
         <v>480</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" t="s">
         <v>482</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -4508,28 +5618,28 @@
         <v>66</v>
       </c>
       <c r="C72" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="F72" t="s">
-        <v>179</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="H72" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="I72" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>339</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4543,57 +5653,57 @@
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E73" t="s">
         <v>72</v>
       </c>
       <c r="F73" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G73" t="s">
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I73" t="s">
         <v>72</v>
       </c>
       <c r="J73" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B74" t="s">
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>489</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="E74" t="s">
         <v>491</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="G74" t="s">
         <v>493</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="I74" t="s">
         <v>495</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -4604,28 +5714,28 @@
         <v>21</v>
       </c>
       <c r="C75" t="s">
+        <v>497</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" t="s">
         <v>499</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" t="s">
         <v>501</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" t="s">
         <v>503</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" s="3" t="s">
         <v>504</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -4636,28 +5746,28 @@
         <v>30</v>
       </c>
       <c r="C76" t="s">
+        <v>505</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" t="s">
         <v>507</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" t="s">
         <v>509</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" t="s">
         <v>511</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4668,28 +5778,28 @@
         <v>39</v>
       </c>
       <c r="C77" t="s">
+        <v>513</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" t="s">
         <v>515</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" t="s">
         <v>517</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" t="s">
         <v>519</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4700,28 +5810,28 @@
         <v>48</v>
       </c>
       <c r="C78" t="s">
+        <v>521</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" t="s">
         <v>523</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" t="s">
         <v>525</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" t="s">
         <v>527</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4732,28 +5842,28 @@
         <v>57</v>
       </c>
       <c r="C79" t="s">
+        <v>529</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" t="s">
         <v>531</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" t="s">
         <v>533</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" t="s">
         <v>535</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4764,28 +5874,28 @@
         <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="F80" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="G80" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="H80" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
       <c r="I80" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="J80" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4799,57 +5909,57 @@
         <v>72</v>
       </c>
       <c r="D81" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E81" t="s">
         <v>72</v>
       </c>
       <c r="F81" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G81" t="s">
         <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I81" t="s">
         <v>72</v>
       </c>
       <c r="J81" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>542</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="E82" t="s">
         <v>544</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" t="s">
         <v>546</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" t="s">
         <v>548</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4860,28 +5970,28 @@
         <v>21</v>
       </c>
       <c r="C83" t="s">
+        <v>550</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" t="s">
         <v>552</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" t="s">
         <v>554</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" t="s">
         <v>556</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" s="3" t="s">
         <v>557</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4892,28 +6002,28 @@
         <v>30</v>
       </c>
       <c r="C84" t="s">
+        <v>558</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" t="s">
         <v>560</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="G84" t="s">
         <v>562</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="I84" t="s">
         <v>564</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4924,28 +6034,28 @@
         <v>39</v>
       </c>
       <c r="C85" t="s">
+        <v>566</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="E85" t="s">
         <v>568</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" t="s">
         <v>570</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" t="s">
         <v>572</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4956,28 +6066,28 @@
         <v>48</v>
       </c>
       <c r="C86" t="s">
+        <v>574</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" t="s">
         <v>576</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" t="s">
         <v>578</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" t="s">
         <v>580</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4988,28 +6098,28 @@
         <v>57</v>
       </c>
       <c r="C87" t="s">
+        <v>582</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="E87" t="s">
         <v>584</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" t="s">
         <v>586</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" t="s">
         <v>588</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -5020,28 +6130,28 @@
         <v>66</v>
       </c>
       <c r="C88" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D88" t="s">
         <v>179</v>
       </c>
       <c r="E88" t="s">
+        <v>68</v>
+      </c>
+      <c r="F88" t="s">
         <v>67</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>68</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>67</v>
       </c>
-      <c r="H88" t="s">
-        <v>68</v>
-      </c>
       <c r="I88" t="s">
-        <v>67</v>
+        <v>233</v>
       </c>
       <c r="J88" t="s">
-        <v>68</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -5055,57 +6165,57 @@
         <v>72</v>
       </c>
       <c r="D89" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E89" t="s">
         <v>72</v>
       </c>
       <c r="F89" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G89" t="s">
         <v>72</v>
       </c>
       <c r="H89" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I89" t="s">
         <v>72</v>
       </c>
       <c r="J89" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>20</v>
+        <v>594</v>
       </c>
       <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
         <v>595</v>
       </c>
-      <c r="C90" s="4">
-        <v>1.7878787878787881</v>
-      </c>
-      <c r="D90" s="4">
-        <v>1.2121212121212119</v>
-      </c>
-      <c r="E90" s="4">
-        <v>1.757575757575758</v>
-      </c>
-      <c r="F90" s="4">
-        <v>1.242424242424242</v>
-      </c>
-      <c r="G90" s="4">
-        <v>1.7272727272727271</v>
-      </c>
-      <c r="H90" s="4">
-        <v>1.2727272727272729</v>
-      </c>
-      <c r="I90" s="4">
-        <v>1.757575757575758</v>
-      </c>
-      <c r="J90" s="4">
-        <v>1.242424242424242</v>
+      <c r="D90" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E90" t="s">
+        <v>597</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G90" t="s">
+        <v>599</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="I90" t="s">
+        <v>601</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -5113,31 +6223,1823 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>596</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
+        <v>603</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E91" t="s">
+        <v>605</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="G91" t="s">
+        <v>607</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="I91" t="s">
+        <v>609</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92" t="s">
+        <v>611</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E92" t="s">
+        <v>613</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G92" t="s">
+        <v>615</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="I92" t="s">
+        <v>617</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>619</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E93" t="s">
+        <v>621</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G93" t="s">
+        <v>623</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="I93" t="s">
+        <v>625</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" t="s">
+        <v>627</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E94" t="s">
+        <v>629</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="G94" t="s">
+        <v>631</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="I94" t="s">
+        <v>633</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" t="s">
+        <v>635</v>
+      </c>
+      <c r="D95" t="s">
+        <v>636</v>
+      </c>
+      <c r="E95" t="s">
+        <v>637</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G95" t="s">
+        <v>639</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="I95" t="s">
+        <v>641</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>20</v>
+      </c>
+      <c r="B96" t="s">
+        <v>66</v>
+      </c>
+      <c r="C96" t="s">
+        <v>233</v>
+      </c>
+      <c r="D96" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" t="s">
+        <v>233</v>
+      </c>
+      <c r="F96" t="s">
+        <v>232</v>
+      </c>
+      <c r="G96" t="s">
+        <v>233</v>
+      </c>
+      <c r="H96" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" t="s">
+        <v>179</v>
+      </c>
+      <c r="J96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>71</v>
+      </c>
+      <c r="C97" t="s">
         <v>72</v>
       </c>
-      <c r="D91" t="s">
-        <v>597</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="D97" t="s">
+        <v>643</v>
+      </c>
+      <c r="E97" t="s">
         <v>72</v>
       </c>
-      <c r="F91" t="s">
-        <v>598</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="F97" t="s">
+        <v>644</v>
+      </c>
+      <c r="G97" t="s">
         <v>72</v>
       </c>
-      <c r="H91" t="s">
-        <v>599</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H97" t="s">
+        <v>645</v>
+      </c>
+      <c r="I97" t="s">
         <v>72</v>
       </c>
-      <c r="J91" t="s">
-        <v>600</v>
+      <c r="J97" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>647</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>648</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E98" t="s">
+        <v>650</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="G98" t="s">
+        <v>652</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="I98" t="s">
+        <v>654</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" t="s">
+        <v>656</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E99" t="s">
+        <v>658</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G99" t="s">
+        <v>660</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I99" t="s">
+        <v>662</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>664</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E100" t="s">
+        <v>666</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="G100" t="s">
+        <v>668</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="I100" t="s">
+        <v>670</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" t="s">
+        <v>672</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E101" t="s">
+        <v>674</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="G101" t="s">
+        <v>676</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="I101" t="s">
+        <v>678</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" t="s">
+        <v>680</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E102" t="s">
+        <v>682</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G102" t="s">
+        <v>684</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I102" t="s">
+        <v>686</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" t="s">
+        <v>57</v>
+      </c>
+      <c r="C103" t="s">
+        <v>688</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E103" t="s">
+        <v>690</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G103" t="s">
+        <v>692</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="I103" t="s">
+        <v>694</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" t="s">
+        <v>70</v>
+      </c>
+      <c r="I104" t="s">
+        <v>232</v>
+      </c>
+      <c r="J104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" t="s">
+        <v>696</v>
+      </c>
+      <c r="E105" t="s">
+        <v>72</v>
+      </c>
+      <c r="F105" t="s">
+        <v>697</v>
+      </c>
+      <c r="G105" t="s">
+        <v>72</v>
+      </c>
+      <c r="H105" t="s">
+        <v>698</v>
+      </c>
+      <c r="I105" t="s">
+        <v>72</v>
+      </c>
+      <c r="J105" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>700</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>701</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="E106" t="s">
+        <v>703</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G106" t="s">
+        <v>705</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="I106" t="s">
+        <v>707</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" t="s">
+        <v>709</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E107" t="s">
+        <v>711</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="G107" t="s">
+        <v>713</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="I107" t="s">
+        <v>715</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108" t="s">
+        <v>717</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="E108" t="s">
+        <v>719</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="G108" t="s">
+        <v>721</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="I108" t="s">
+        <v>723</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>725</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="E109" t="s">
+        <v>727</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G109" t="s">
+        <v>729</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="I109" t="s">
+        <v>731</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>20</v>
+      </c>
+      <c r="B110" t="s">
+        <v>48</v>
+      </c>
+      <c r="C110" t="s">
+        <v>733</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E110" t="s">
+        <v>735</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="G110" t="s">
+        <v>737</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="I110" t="s">
+        <v>739</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>20</v>
+      </c>
+      <c r="B111" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" t="s">
+        <v>741</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="E111" t="s">
+        <v>743</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="G111" t="s">
+        <v>745</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="I111" t="s">
+        <v>747</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B112" t="s">
+        <v>66</v>
+      </c>
+      <c r="C112" t="s">
+        <v>67</v>
+      </c>
+      <c r="D112" t="s">
+        <v>68</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
+      </c>
+      <c r="F112" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" t="s">
+        <v>67</v>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+      <c r="I112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>20</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" t="s">
+        <v>72</v>
+      </c>
+      <c r="D113" t="s">
+        <v>749</v>
+      </c>
+      <c r="E113" t="s">
+        <v>72</v>
+      </c>
+      <c r="F113" t="s">
+        <v>750</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>751</v>
+      </c>
+      <c r="I113" t="s">
+        <v>72</v>
+      </c>
+      <c r="J113" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>753</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>754</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="E114" t="s">
+        <v>756</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="G114" t="s">
+        <v>758</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="I114" t="s">
+        <v>760</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115" t="s">
+        <v>762</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="E115" t="s">
+        <v>764</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G115" t="s">
+        <v>766</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="I115" t="s">
+        <v>768</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>20</v>
+      </c>
+      <c r="B116" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" t="s">
+        <v>770</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E116" t="s">
+        <v>772</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="G116" t="s">
+        <v>774</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="I116" t="s">
+        <v>776</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>778</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E117" t="s">
+        <v>780</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G117" t="s">
+        <v>782</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="I117" t="s">
+        <v>784</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>20</v>
+      </c>
+      <c r="B118" t="s">
+        <v>48</v>
+      </c>
+      <c r="C118" t="s">
+        <v>786</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E118" t="s">
+        <v>788</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="G118" t="s">
+        <v>790</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="I118" t="s">
+        <v>792</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>20</v>
+      </c>
+      <c r="B119" t="s">
+        <v>57</v>
+      </c>
+      <c r="C119" t="s">
+        <v>794</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="E119" t="s">
+        <v>796</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="G119" t="s">
+        <v>798</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="I119" t="s">
+        <v>800</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>20</v>
+      </c>
+      <c r="B120" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" t="s">
+        <v>233</v>
+      </c>
+      <c r="D120" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+      <c r="F120" t="s">
+        <v>232</v>
+      </c>
+      <c r="G120" t="s">
+        <v>232</v>
+      </c>
+      <c r="H120" t="s">
+        <v>233</v>
+      </c>
+      <c r="I120" t="s">
+        <v>68</v>
+      </c>
+      <c r="J120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>71</v>
+      </c>
+      <c r="C121" t="s">
+        <v>72</v>
+      </c>
+      <c r="D121" t="s">
+        <v>802</v>
+      </c>
+      <c r="E121" t="s">
+        <v>72</v>
+      </c>
+      <c r="F121" t="s">
+        <v>803</v>
+      </c>
+      <c r="G121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" t="s">
+        <v>804</v>
+      </c>
+      <c r="I121" t="s">
+        <v>72</v>
+      </c>
+      <c r="J121" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>806</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>807</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="E122" t="s">
+        <v>809</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="G122" t="s">
+        <v>811</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="I122" t="s">
+        <v>813</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" t="s">
+        <v>815</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="E123" t="s">
+        <v>817</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="G123" t="s">
+        <v>819</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="I123" t="s">
+        <v>821</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>20</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124" t="s">
+        <v>823</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E124" t="s">
+        <v>825</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="G124" t="s">
+        <v>827</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="I124" t="s">
+        <v>829</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>20</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>831</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E125" t="s">
+        <v>833</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="G125" t="s">
+        <v>835</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="I125" t="s">
+        <v>837</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" t="s">
+        <v>839</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E126" t="s">
+        <v>841</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="G126" t="s">
+        <v>843</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="I126" t="s">
+        <v>845</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>20</v>
+      </c>
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="C127" t="s">
+        <v>847</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E127" t="s">
+        <v>849</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="G127" t="s">
+        <v>851</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I127" t="s">
+        <v>853</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>20</v>
+      </c>
+      <c r="B128" t="s">
+        <v>66</v>
+      </c>
+      <c r="C128" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" t="s">
+        <v>233</v>
+      </c>
+      <c r="E128" t="s">
+        <v>232</v>
+      </c>
+      <c r="F128" t="s">
+        <v>233</v>
+      </c>
+      <c r="G128" t="s">
+        <v>233</v>
+      </c>
+      <c r="H128" t="s">
+        <v>232</v>
+      </c>
+      <c r="I128" t="s">
+        <v>179</v>
+      </c>
+      <c r="J128" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B129" t="s">
+        <v>71</v>
+      </c>
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+      <c r="D129" t="s">
+        <v>855</v>
+      </c>
+      <c r="E129" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" t="s">
+        <v>856</v>
+      </c>
+      <c r="G129" t="s">
+        <v>72</v>
+      </c>
+      <c r="H129" t="s">
+        <v>857</v>
+      </c>
+      <c r="I129" t="s">
+        <v>72</v>
+      </c>
+      <c r="J129" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>859</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>860</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E130" t="s">
+        <v>862</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="G130" t="s">
+        <v>864</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="I130" t="s">
+        <v>866</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" t="s">
+        <v>868</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E131" t="s">
+        <v>870</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="G131" t="s">
+        <v>872</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="I131" t="s">
+        <v>874</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>20</v>
+      </c>
+      <c r="B132" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" t="s">
+        <v>876</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="E132" t="s">
+        <v>878</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="G132" t="s">
+        <v>880</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="I132" t="s">
+        <v>882</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" t="s">
+        <v>884</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="E133" t="s">
+        <v>886</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="G133" t="s">
+        <v>888</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="I133" t="s">
+        <v>890</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>892</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E134" t="s">
+        <v>894</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="G134" t="s">
+        <v>896</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="I134" t="s">
+        <v>898</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" t="s">
+        <v>900</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="E135" t="s">
+        <v>902</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="G135" t="s">
+        <v>904</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="I135" t="s">
+        <v>906</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>66</v>
+      </c>
+      <c r="C136" t="s">
+        <v>69</v>
+      </c>
+      <c r="D136" t="s">
+        <v>70</v>
+      </c>
+      <c r="E136" t="s">
+        <v>67</v>
+      </c>
+      <c r="F136" t="s">
+        <v>68</v>
+      </c>
+      <c r="G136" t="s">
+        <v>67</v>
+      </c>
+      <c r="H136" t="s">
+        <v>68</v>
+      </c>
+      <c r="I136" t="s">
+        <v>67</v>
+      </c>
+      <c r="J136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>71</v>
+      </c>
+      <c r="C137" t="s">
+        <v>72</v>
+      </c>
+      <c r="D137" t="s">
+        <v>908</v>
+      </c>
+      <c r="E137" t="s">
+        <v>72</v>
+      </c>
+      <c r="F137" t="s">
+        <v>909</v>
+      </c>
+      <c r="G137" t="s">
+        <v>72</v>
+      </c>
+      <c r="H137" t="s">
+        <v>910</v>
+      </c>
+      <c r="I137" t="s">
+        <v>72</v>
+      </c>
+      <c r="J137" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>912</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>913</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="E138" t="s">
+        <v>915</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="G138" t="s">
+        <v>917</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="I138" t="s">
+        <v>919</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
+        <v>921</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="E139" t="s">
+        <v>923</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="G139" t="s">
+        <v>925</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="I139" t="s">
+        <v>927</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>929</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="E140" t="s">
+        <v>931</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="G140" t="s">
+        <v>933</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="I140" t="s">
+        <v>935</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>39</v>
+      </c>
+      <c r="C141" t="s">
+        <v>937</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E141" t="s">
+        <v>939</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G141" t="s">
+        <v>941</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="I141" t="s">
+        <v>943</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" t="s">
+        <v>945</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="E142" t="s">
+        <v>947</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="G142" t="s">
+        <v>949</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="I142" t="s">
+        <v>951</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>57</v>
+      </c>
+      <c r="C143" t="s">
+        <v>953</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="E143" t="s">
+        <v>955</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="G143" t="s">
+        <v>957</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="I143" t="s">
+        <v>959</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" t="s">
+        <v>232</v>
+      </c>
+      <c r="D144" t="s">
+        <v>233</v>
+      </c>
+      <c r="E144" t="s">
+        <v>67</v>
+      </c>
+      <c r="F144" t="s">
+        <v>68</v>
+      </c>
+      <c r="G144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J144" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>20</v>
+      </c>
+      <c r="B145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" t="s">
+        <v>961</v>
+      </c>
+      <c r="E145" t="s">
+        <v>72</v>
+      </c>
+      <c r="F145" t="s">
+        <v>962</v>
+      </c>
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" t="s">
+        <v>963</v>
+      </c>
+      <c r="I145" t="s">
+        <v>72</v>
+      </c>
+      <c r="J145" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>20</v>
+      </c>
+      <c r="B146" t="s">
+        <v>965</v>
+      </c>
+      <c r="C146" s="4">
+        <v>1.7037037037037039</v>
+      </c>
+      <c r="D146" s="4">
+        <v>1.2962962962962961</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1.657407407407407</v>
+      </c>
+      <c r="F146" s="4">
+        <v>1.342592592592593</v>
+      </c>
+      <c r="G146" s="4">
+        <v>1.657407407407407</v>
+      </c>
+      <c r="H146" s="4">
+        <v>1.342592592592593</v>
+      </c>
+      <c r="I146" s="4">
+        <v>1.6481481481481479</v>
+      </c>
+      <c r="J146" s="4">
+        <v>1.3518518518518521</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>20</v>
+      </c>
+      <c r="B147" t="s">
+        <v>966</v>
+      </c>
+      <c r="C147" t="s">
+        <v>72</v>
+      </c>
+      <c r="D147" t="s">
+        <v>967</v>
+      </c>
+      <c r="E147" t="s">
+        <v>72</v>
+      </c>
+      <c r="F147" t="s">
+        <v>968</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>969</v>
+      </c>
+      <c r="I147" t="s">
+        <v>72</v>
+      </c>
+      <c r="J147" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
